--- a/ig/ch-lab-order/StructureDefinition-ch-lab-order-SR.xlsx
+++ b/ig/ch-lab-order/StructureDefinition-ch-lab-order-SR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3107" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3106" uniqueCount="614">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(WORK))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -540,7 +540,7 @@
     <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -888,7 +888,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-lab-order/StructureDefinition/ch-lab-order-SR|http://fhir.ch/ig/ch-lab-order/StructureDefinition/ch-lab-order-SR-container)
+    <t xml:space="preserve">Reference(CarePlan|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-servicerequest|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-medicationrequest)
 </t>
   </si>
   <si>
@@ -1048,10 +1048,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>Classification of the requested service.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/servicerequest-category</t>
   </si>
   <si>
     <t>RF1-5</t>
@@ -1416,7 +1413,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-encounter)
 </t>
   </si>
   <si>
@@ -1606,7 +1603,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|HealthcareService|Patient|Device|RelatedPerson)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization|CareTeam|HealthcareService|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson)
 </t>
   </si>
   <si>
@@ -1704,7 +1701,7 @@
     <t>ServiceRequest.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-lab-order/StructureDefinition/ch-lab-order-diagnosis-condition|http://fhir.ch/ig/ch-lab-order/StructureDefinition/ch-lab-order-diagnostic-report)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-lab-order/StructureDefinition/ch-lab-order-diagnosis-condition|http://fhir.ch/ig/ch-lab-order/StructureDefinition/ch-lab-order-diagnostic-report|Observation)
 </t>
   </si>
   <si>
@@ -1733,7 +1730,7 @@
 </t>
   </si>
   <si>
-    <t>Associated insurance coverage</t>
+    <t>Insurance information</t>
   </si>
   <si>
     <t>Insurance plans, coverage extensions, pre-authorizations and/or pre-determinations that may be needed for delivering the requested service.</t>
@@ -1755,11 +1752,11 @@
 AOE</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-lab-order/StructureDefinition/ch-lab-order-diagnosis-condition|http://fhir.ch/ig/ch-lab-order/StructureDefinition/ChLabOrderMedication|MedicationStatement|http://fhir.ch/ig/ch-orf/StructureDefinition/ch-orf-documentreference|http://fhir.ch/ig/ch-lab-order/StructureDefinition/ch-lab-order-SR|http://fhir.ch/ig/ch-orf/StructureDefinition/ch-orf-servicerequest)
 </t>
   </si>
   <si>
-    <t>Additional clinical information</t>
+    <t>Supporting information</t>
   </si>
   <si>
     <t>Additional clinical information about the patient or specimen that may influence the services or their interpretations.     This information includes diagnosis, clinical findings and other observations.  In laboratory ordering these are typically referred to as "ask at order entry questions (AOEs)".  This includes observations explicitly requested by the producer (filler) to provide context or supporting information needed to complete the order. For example,  reporting the amount of inspired oxygen for blood gas measurements.</t>
@@ -2283,17 +2280,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.4921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.07421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.8828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.00390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.35546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="37.7265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="158.20703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2302,27 +2299,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="137.30859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="117.71875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="85.41796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="163.4453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="66.88671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="73.23046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="140.125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="57.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6844,11 +6841,9 @@
       <c r="X39" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="Y39" t="s" s="2">
+      <c r="Y39" s="2"/>
+      <c r="Z39" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>83</v>
@@ -6884,10 +6879,10 @@
         <v>83</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>318</v>
@@ -6898,10 +6893,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6927,10 +6922,10 @@
         <v>112</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6938,7 +6933,7 @@
         <v>83</v>
       </c>
       <c r="Q40" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>83</v>
@@ -6962,11 +6957,11 @@
         <v>196</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Z40" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>335</v>
-      </c>
       <c r="AA40" t="s" s="2">
         <v>83</v>
       </c>
@@ -6983,7 +6978,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6998,16 +6993,16 @@
         <v>104</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -7015,10 +7010,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7041,26 +7036,26 @@
         <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="O41" t="s" s="2">
+      <c r="P41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q41" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="P41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q41" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="R41" t="s" s="2">
         <v>83</v>
       </c>
@@ -7104,7 +7099,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7119,13 +7114,13 @@
         <v>104</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>83</v>
@@ -7136,14 +7131,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7165,13 +7160,13 @@
         <v>203</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7200,11 +7195,11 @@
         <v>325</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>355</v>
-      </c>
       <c r="AA42" t="s" s="2">
         <v>83</v>
       </c>
@@ -7221,7 +7216,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7236,31 +7231,31 @@
         <v>104</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>360</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7282,13 +7277,13 @@
         <v>203</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7317,11 +7312,11 @@
         <v>325</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>367</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>83</v>
       </c>
@@ -7338,7 +7333,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7347,7 +7342,7 @@
         <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>104</v>
@@ -7356,24 +7351,24 @@
         <v>83</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7485,10 +7480,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7602,10 +7597,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7628,19 +7623,19 @@
         <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
@@ -7689,7 +7684,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7707,10 +7702,10 @@
         <v>83</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>83</v>
@@ -7721,10 +7716,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7836,10 +7831,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7953,10 +7948,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7982,16 +7977,16 @@
         <v>106</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -8040,7 +8035,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8058,10 +8053,10 @@
         <v>83</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>83</v>
@@ -8072,10 +8067,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8101,13 +8096,13 @@
         <v>179</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8157,7 +8152,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8175,10 +8170,10 @@
         <v>83</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>83</v>
@@ -8189,10 +8184,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8218,14 +8213,14 @@
         <v>112</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -8254,25 +8249,25 @@
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF51" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8290,10 +8285,10 @@
         <v>83</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>83</v>
@@ -8304,10 +8299,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8333,14 +8328,14 @@
         <v>179</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>83</v>
@@ -8389,7 +8384,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8407,10 +8402,10 @@
         <v>83</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>83</v>
@@ -8421,10 +8416,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8447,19 +8442,19 @@
         <v>93</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
@@ -8508,7 +8503,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8526,10 +8521,10 @@
         <v>83</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>83</v>
@@ -8540,10 +8535,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8569,16 +8564,16 @@
         <v>179</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
@@ -8627,7 +8622,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8645,10 +8640,10 @@
         <v>83</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>83</v>
@@ -8659,10 +8654,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8685,17 +8680,17 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8744,7 +8739,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8762,10 +8757,10 @@
         <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>83</v>
@@ -8776,10 +8771,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8802,13 +8797,13 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8859,7 +8854,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>92</v>
@@ -8874,31 +8869,31 @@
         <v>104</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>443</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8917,13 +8912,13 @@
         <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8974,7 +8969,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8989,31 +8984,31 @@
         <v>104</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>453</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9032,13 +9027,13 @@
         <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9089,7 +9084,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9104,27 +9099,27 @@
         <v>104</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>463</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9147,13 +9142,13 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9183,11 +9178,11 @@
         <v>325</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>469</v>
-      </c>
       <c r="AA59" t="s" s="2">
         <v>83</v>
       </c>
@@ -9204,7 +9199,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9225,25 +9220,25 @@
         <v>83</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>471</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9262,13 +9257,13 @@
         <v>93</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9319,7 +9314,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9334,31 +9329,31 @@
         <v>104</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AN60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>481</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9377,16 +9372,16 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9436,7 +9431,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9451,31 +9446,31 @@
         <v>104</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AN61" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>492</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9497,13 +9492,13 @@
         <v>203</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9532,11 +9527,11 @@
         <v>325</v>
       </c>
       <c r="Y62" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="Z62" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>499</v>
-      </c>
       <c r="AA62" t="s" s="2">
         <v>83</v>
       </c>
@@ -9553,7 +9548,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9568,16 +9563,16 @@
         <v>104</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>83</v>
@@ -9585,14 +9580,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9611,16 +9606,16 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9670,7 +9665,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9685,16 +9680,16 @@
         <v>104</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AM63" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="AM63" t="s" s="2">
-        <v>512</v>
-      </c>
       <c r="AN63" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
@@ -9702,10 +9697,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9731,10 +9726,10 @@
         <v>203</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9764,11 +9759,11 @@
         <v>325</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="Z64" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>517</v>
-      </c>
       <c r="AA64" t="s" s="2">
         <v>83</v>
       </c>
@@ -9785,7 +9780,7 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9806,10 +9801,10 @@
         <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
@@ -9817,10 +9812,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9843,13 +9838,13 @@
         <v>93</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9900,7 +9895,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -9921,10 +9916,10 @@
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
@@ -9932,10 +9927,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9961,13 +9956,13 @@
         <v>203</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9996,11 +9991,11 @@
         <v>325</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="Z66" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="Z66" t="s" s="2">
-        <v>528</v>
-      </c>
       <c r="AA66" t="s" s="2">
         <v>83</v>
       </c>
@@ -10017,7 +10012,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10032,16 +10027,16 @@
         <v>104</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
@@ -10049,10 +10044,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10164,10 +10159,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10281,10 +10276,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10307,19 +10302,19 @@
         <v>93</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>83</v>
@@ -10368,7 +10363,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10386,10 +10381,10 @@
         <v>83</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>83</v>
@@ -10400,10 +10395,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10429,16 +10424,16 @@
         <v>179</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>83</v>
@@ -10487,7 +10482,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10505,10 +10500,10 @@
         <v>83</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>83</v>
@@ -10519,10 +10514,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10545,16 +10540,16 @@
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10604,7 +10599,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -10619,16 +10614,16 @@
         <v>104</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="AM71" t="s" s="2">
-        <v>544</v>
-      </c>
       <c r="AN71" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>83</v>
@@ -10636,10 +10631,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10650,7 +10645,7 @@
         <v>81</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>93</v>
@@ -10662,13 +10657,13 @@
         <v>83</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10719,7 +10714,7 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -10734,13 +10729,13 @@
         <v>104</v>
       </c>
       <c r="AK72" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="AL72" t="s" s="2">
+      <c r="AM72" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>83</v>
@@ -10751,14 +10746,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10768,7 +10763,7 @@
         <v>82</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>83</v>
@@ -10777,16 +10772,16 @@
         <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10836,7 +10831,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -10851,13 +10846,13 @@
         <v>104</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AM73" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>83</v>
@@ -10868,10 +10863,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10894,16 +10889,16 @@
         <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10953,7 +10948,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -10971,10 +10966,10 @@
         <v>83</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>83</v>
@@ -10985,14 +10980,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11014,16 +11009,16 @@
         <v>203</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>83</v>
@@ -11051,11 +11046,11 @@
         <v>325</v>
       </c>
       <c r="Y75" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="Z75" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="Z75" t="s" s="2">
-        <v>575</v>
-      </c>
       <c r="AA75" t="s" s="2">
         <v>83</v>
       </c>
@@ -11072,7 +11067,7 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11090,24 +11085,24 @@
         <v>83</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO75" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>577</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11130,13 +11125,13 @@
         <v>83</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>52</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11187,7 +11182,7 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11202,27 +11197,27 @@
         <v>104</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="AL76" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AM76" t="s" s="2">
+      <c r="AN76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO76" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>583</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11334,10 +11329,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11451,10 +11446,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11477,16 +11472,16 @@
         <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11536,7 +11531,7 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -11557,7 +11552,7 @@
         <v>135</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>83</v>
@@ -11568,10 +11563,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11594,13 +11589,13 @@
         <v>93</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11651,7 +11646,7 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -11672,7 +11667,7 @@
         <v>135</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>83</v>
@@ -11683,10 +11678,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11709,13 +11704,13 @@
         <v>93</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11766,7 +11761,7 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>92</v>
@@ -11787,7 +11782,7 @@
         <v>135</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>83</v>
@@ -11798,10 +11793,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11827,10 +11822,10 @@
         <v>179</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11881,7 +11876,7 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
@@ -11899,10 +11894,10 @@
         <v>83</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>83</v>
@@ -11913,10 +11908,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11939,16 +11934,16 @@
         <v>83</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11998,7 +11993,7 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12013,13 +12008,13 @@
         <v>104</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>83</v>

--- a/ig/ch-lab-order/StructureDefinition-ch-lab-order-SR.xlsx
+++ b/ig/ch-lab-order/StructureDefinition-ch-lab-order-SR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3106" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3106" uniqueCount="613">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0-ballot</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>CH LAB-Order-SR</t>
+    <t>CH LAB-Order ServiceRequest</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2019-02-05</t>
+    <t>2025-12-16T11:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Definition of a ServiceRequests of a single LabTest in the context of CH LAB-Order</t>
+    <t>Definition of the ServiceRequest resource to describe a single lab test order.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -275,10 +275,7 @@
 </t>
   </si>
   <si>
-    <t>CH LAB-Order ServiceRequest for a labtest</t>
-  </si>
-  <si>
-    <t>The IHE Laboratory Testing Workflow Profile covers the workflow related to tests performed on in vitro specimens by a clinical laboratory inside a healthcare institution, for both existing and pending orders, related to identified patients and unidentified or misidentified patients. It maintains the consistency of patient and order information from registration through ordering, scheduling, pre-analytical processing, testing, technical and clinical validation, to results reporting and usage of laoratory observations and comments by the care providers.</t>
+    <t>A record of a request for service such as diagnostic investigations, treatments, or operations to be performed.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -380,7 +377,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -679,7 +676,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -776,7 +773,7 @@
     <t>ServiceRequest.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -844,7 +841,7 @@
     <t>ServiceRequest.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition)
+    <t xml:space="preserve">canonical(ActivityDefinition|4.0.1|PlanDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -1134,7 +1131,7 @@
     <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service. For laboratory, LOINC is preferred.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-code|4.0.1</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1171,7 +1168,7 @@
     <t>Codified order entry details which are based on order context.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">prr-1
@@ -1486,7 +1483,7 @@
     <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason|4.0.1</t>
   </si>
   <si>
     <t>boolean: precondition.negationInd (inversed - so negationInd = true means asNeeded=false CodeableConcept: precondition.observationEventCriterion[code="Assertion"].value</t>
@@ -1581,7 +1578,7 @@
     <t>Indicates specific responsibility of an individual within the care team, such as "Primary physician", "Team coordinator", "Caregiver", etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
+    <t>http://hl7.org/fhir/ValueSet/participant-role|4.0.1</t>
   </si>
   <si>
     <t>Request.performerType</t>
@@ -1646,7 +1643,7 @@
     <t>ServiceRequest.locationReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1671,7 +1668,7 @@
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-reason|4.0.1</t>
   </si>
   <si>
     <t>Request.reasonCode</t>
@@ -1701,7 +1698,7 @@
     <t>ServiceRequest.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-lab-order/StructureDefinition/ch-lab-order-diagnosis-condition|http://fhir.ch/ig/ch-lab-order/StructureDefinition/ch-lab-order-diagnostic-report|Observation)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-condition|DiagnosticReport|Observation)
 </t>
   </si>
   <si>
@@ -1752,7 +1749,7 @@
 AOE</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-lab-order/StructureDefinition/ch-lab-order-diagnosis-condition|http://fhir.ch/ig/ch-lab-order/StructureDefinition/ChLabOrderMedication|MedicationStatement|http://fhir.ch/ig/ch-orf/StructureDefinition/ch-orf-documentreference|http://fhir.ch/ig/ch-lab-order/StructureDefinition/ch-lab-order-SR|http://fhir.ch/ig/ch-orf/StructureDefinition/ch-orf-servicerequest)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-condition|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-medication|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-medicationstatement|http://fhir.ch/ig/ch-orf/StructureDefinition/ch-orf-documentreference|http://fhir.ch/ig/ch-lab-order/StructureDefinition/ch-lab-order-SR|http://fhir.ch/ig/ch-orf/StructureDefinition/ch-orf-servicerequest)
 </t>
   </si>
   <si>
@@ -1777,7 +1774,7 @@
     <t>ServiceRequest.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1818,7 +1815,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>targetSiteCode</t>
@@ -1855,7 +1852,7 @@
     <t>ServiceRequest.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+    <t>Reference(Practitioner|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
 string</t>
   </si>
   <si>
@@ -1923,7 +1920,7 @@
     <t>ServiceRequest.relevantHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Provenance)
+    <t xml:space="preserve">Reference(Provenance|4.0.1)
 </t>
   </si>
   <si>
@@ -2478,10 +2475,10 @@
         <v>84</v>
       </c>
       <c r="L2" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2544,16 +2541,16 @@
         <v>83</v>
       </c>
       <c r="AJ2" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AK2" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>83</v>
@@ -2564,10 +2561,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2578,28 +2575,28 @@
         <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2649,13 +2646,13 @@
         <v>83</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>83</v>
@@ -2681,10 +2678,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2695,25 +2692,25 @@
         <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2764,19 +2761,19 @@
         <v>83</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>83</v>
@@ -2796,10 +2793,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2810,28 +2807,28 @@
         <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2881,19 +2878,19 @@
         <v>83</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>83</v>
@@ -2913,10 +2910,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2927,7 +2924,7 @@
         <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>83</v>
@@ -2939,16 +2936,16 @@
         <v>83</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2974,43 +2971,43 @@
         <v>83</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>83</v>
@@ -3030,21 +3027,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>83</v>
@@ -3056,16 +3053,16 @@
         <v>83</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3115,28 +3112,28 @@
         <v>83</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>83</v>
@@ -3147,14 +3144,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3173,16 +3170,16 @@
         <v>83</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3232,7 +3229,7 @@
         <v>83</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>81</v>
@@ -3253,7 +3250,7 @@
         <v>83</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>83</v>
@@ -3264,10 +3261,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3290,13 +3287,13 @@
         <v>83</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3335,17 +3332,17 @@
         <v>83</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>81</v>
@@ -3357,33 +3354,33 @@
         <v>83</v>
       </c>
       <c r="AJ9" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO9" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="AK9" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM9" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN9" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO9" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" hidden="true">
-      <c r="A10" t="s" s="2">
+      <c r="B10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>83</v>
@@ -3396,7 +3393,7 @@
         <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>83</v>
@@ -3405,13 +3402,13 @@
         <v>83</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3462,7 +3459,7 @@
         <v>83</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
@@ -3471,36 +3468,36 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM10" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO10" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AJ10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK10" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM10" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO10" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" hidden="true">
-      <c r="A11" t="s" s="2">
+      <c r="B11" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>83</v>
@@ -3510,11 +3507,11 @@
         <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H11" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="I11" t="s" s="2">
         <v>83</v>
       </c>
@@ -3522,13 +3519,13 @@
         <v>83</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3579,7 +3576,7 @@
         <v>83</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
@@ -3588,10 +3585,10 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>83</v>
@@ -3611,14 +3608,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3631,25 +3628,25 @@
         <v>83</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>83</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>83</v>
@@ -3698,7 +3695,7 @@
         <v>83</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3710,7 +3707,7 @@
         <v>83</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>83</v>
@@ -3719,7 +3716,7 @@
         <v>83</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>83</v>
@@ -3730,10 +3727,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3741,31 +3738,31 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3803,17 +3800,17 @@
         <v>83</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -3825,64 +3822,64 @@
         <v>83</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AN13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AO13" t="s" s="2">
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
         <v>172</v>
       </c>
-    </row>
-    <row r="14" hidden="true">
-      <c r="A14" t="s" s="2">
+      <c r="B14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="C14" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="I14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J14" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3893,7 +3890,7 @@
         <v>83</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>83</v>
@@ -3932,7 +3929,7 @@
         <v>83</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
@@ -3944,30 +3941,30 @@
         <v>83</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AN14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>172</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3978,7 +3975,7 @@
         <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>83</v>
@@ -3990,13 +3987,13 @@
         <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -4047,28 +4044,28 @@
         <v>83</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>83</v>
@@ -4079,14 +4076,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4105,16 +4102,16 @@
         <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="N16" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4152,19 +4149,19 @@
         <v>83</v>
       </c>
       <c r="AB16" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="AC16" t="s" s="2">
+      <c r="AF16" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -4176,7 +4173,7 @@
         <v>83</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>83</v>
@@ -4185,7 +4182,7 @@
         <v>83</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>83</v>
@@ -4196,10 +4193,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4210,31 +4207,31 @@
         <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>83</v>
@@ -4259,52 +4256,52 @@
         <v>83</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Z17" t="s" s="2">
+      <c r="AA17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AA17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF17" t="s" s="2">
+      <c r="AG17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>83</v>
@@ -4315,10 +4312,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4329,31 +4326,31 @@
         <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>83</v>
@@ -4378,66 +4375,66 @@
         <v>83</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y18" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="Z18" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Z18" t="s" s="2">
+      <c r="AA18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AA18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF18" t="s" s="2">
+      <c r="AG18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AM18" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" hidden="true">
-      <c r="A19" t="s" s="2">
+      <c r="B19" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4448,31 +4445,31 @@
         <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H19" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="I19" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>83</v>
@@ -4485,78 +4482,78 @@
         <v>83</v>
       </c>
       <c r="T19" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="U19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF19" t="s" s="2">
+      <c r="AG19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AN19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" hidden="true">
-      <c r="A20" t="s" s="2">
+      <c r="B20" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4564,31 +4561,31 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H20" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="I20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K20" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4602,64 +4599,64 @@
         <v>83</v>
       </c>
       <c r="T20" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="U20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF20" t="s" s="2">
+      <c r="AG20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>83</v>
@@ -4670,10 +4667,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4684,25 +4681,25 @@
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K21" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4753,28 +4750,28 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>83</v>
@@ -4785,10 +4782,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4799,28 +4796,28 @@
         <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K22" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4870,45 +4867,45 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO22" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AN22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" hidden="true">
-      <c r="A23" t="s" s="2">
+      <c r="B23" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="C23" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>83</v>
@@ -4918,28 +4915,28 @@
         <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H23" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="I23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M23" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4950,7 +4947,7 @@
         <v>83</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>83</v>
@@ -4989,7 +4986,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -5001,30 +4998,30 @@
         <v>83</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>172</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5035,7 +5032,7 @@
         <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>83</v>
@@ -5047,13 +5044,13 @@
         <v>83</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5104,28 +5101,28 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>83</v>
@@ -5136,14 +5133,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -5162,16 +5159,16 @@
         <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="N25" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5209,19 +5206,19 @@
         <v>83</v>
       </c>
       <c r="AB25" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="AC25" t="s" s="2">
+      <c r="AF25" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5233,7 +5230,7 @@
         <v>83</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>83</v>
@@ -5242,7 +5239,7 @@
         <v>83</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>83</v>
@@ -5253,10 +5250,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5267,31 +5264,31 @@
         <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -5316,52 +5313,52 @@
         <v>83</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Z26" t="s" s="2">
+      <c r="AA26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AA26" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF26" t="s" s="2">
+      <c r="AG26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>83</v>
@@ -5372,10 +5369,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5386,31 +5383,31 @@
         <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J27" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K27" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>83</v>
@@ -5435,52 +5432,52 @@
         <v>83</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Z27" t="s" s="2">
+      <c r="AA27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AA27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF27" t="s" s="2">
+      <c r="AG27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="AM27" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>83</v>
@@ -5489,12 +5486,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5505,31 +5502,31 @@
         <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H28" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="I28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5542,65 +5539,65 @@
         <v>83</v>
       </c>
       <c r="T28" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="U28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF28" t="s" s="2">
+      <c r="AG28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AM28" t="s" s="2">
-        <v>222</v>
-      </c>
       <c r="AN28" t="s" s="2">
         <v>83</v>
       </c>
@@ -5608,12 +5605,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5621,31 +5618,31 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H29" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="I29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K29" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5659,64 +5656,64 @@
         <v>83</v>
       </c>
       <c r="T29" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="U29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF29" t="s" s="2">
+      <c r="AG29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>83</v>
@@ -5727,10 +5724,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5741,25 +5738,25 @@
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K30" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5810,28 +5807,28 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AG30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>83</v>
@@ -5842,10 +5839,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5856,28 +5853,28 @@
         <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K31" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5927,29 +5924,29 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AM31" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AN31" t="s" s="2">
         <v>83</v>
       </c>
@@ -5957,12 +5954,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5973,28 +5970,28 @@
         <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H32" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="I32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6044,7 +6041,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -6056,16 +6053,16 @@
         <v>83</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>83</v>
@@ -6076,10 +6073,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6099,19 +6096,19 @@
         <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6161,7 +6158,7 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6173,16 +6170,16 @@
         <v>83</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>83</v>
@@ -6193,14 +6190,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6216,16 +6213,16 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6276,7 +6273,7 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6288,16 +6285,16 @@
         <v>83</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>83</v>
@@ -6308,14 +6305,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6331,16 +6328,16 @@
         <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6391,7 +6388,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6403,16 +6400,16 @@
         <v>83</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>83</v>
@@ -6423,45 +6420,45 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J36" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K36" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -6510,42 +6507,42 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AN36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" hidden="true">
-      <c r="A37" t="s" s="2">
-        <v>299</v>
-      </c>
       <c r="B37" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6553,31 +6550,31 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H37" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="I37" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H37" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6603,66 +6600,66 @@
         <v>83</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="Z37" t="s" s="2">
+      <c r="AA37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AA37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AO37" t="s" s="2">
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
         <v>309</v>
       </c>
-    </row>
-    <row r="38" hidden="true">
-      <c r="A38" t="s" s="2">
-        <v>310</v>
-      </c>
       <c r="B38" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6670,31 +6667,31 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H38" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="I38" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H38" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6720,55 +6717,55 @@
         <v>83</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="Z38" t="s" s="2">
+      <c r="AA38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AA38" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL38" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6776,10 +6773,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6799,22 +6796,22 @@
         <v>83</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>83</v>
@@ -6824,26 +6821,26 @@
         <v>83</v>
       </c>
       <c r="S39" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X39" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>83</v>
@@ -6861,7 +6858,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6873,30 +6870,30 @@
         <v>83</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AO39" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AN39" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>329</v>
-      </c>
       <c r="B40" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6907,25 +6904,25 @@
         <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H40" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H40" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="I40" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6933,76 +6930,76 @@
         <v>83</v>
       </c>
       <c r="Q40" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="R40" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Y40" t="s" s="2">
+      <c r="Z40" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="Z40" t="s" s="2">
+      <c r="AA40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AA40" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -7010,10 +7007,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7024,103 +7021,103 @@
         <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="O41" t="s" s="2">
+      <c r="P41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q41" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="P41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q41" t="s" s="2">
+      <c r="R41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="R41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>83</v>
@@ -7131,42 +7128,42 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J42" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K42" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7192,70 +7189,70 @@
         <v>83</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="Z42" t="s" s="2">
+      <c r="AA42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AA42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>359</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7271,19 +7268,19 @@
         <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7309,14 +7306,14 @@
         <v>83</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>366</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>83</v>
       </c>
@@ -7333,7 +7330,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7342,33 +7339,33 @@
         <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AJ43" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>368</v>
-      </c>
       <c r="AM43" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7379,7 +7376,7 @@
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>83</v>
@@ -7391,13 +7388,13 @@
         <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7448,28 +7445,28 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>83</v>
@@ -7480,14 +7477,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7506,16 +7503,16 @@
         <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="N45" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7553,19 +7550,19 @@
         <v>83</v>
       </c>
       <c r="AB45" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="AC45" t="s" s="2">
+      <c r="AF45" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7577,7 +7574,7 @@
         <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>83</v>
@@ -7586,7 +7583,7 @@
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>83</v>
@@ -7595,12 +7592,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7611,31 +7608,31 @@
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H46" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H46" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="I46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
@@ -7684,7 +7681,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7696,16 +7693,16 @@
         <v>83</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>83</v>
@@ -7716,10 +7713,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7730,7 +7727,7 @@
         <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>83</v>
@@ -7742,13 +7739,13 @@
         <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7799,28 +7796,28 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>83</v>
@@ -7831,14 +7828,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7857,16 +7854,16 @@
         <v>83</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="N48" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7904,19 +7901,19 @@
         <v>83</v>
       </c>
       <c r="AB48" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE48" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="AC48" t="s" s="2">
+      <c r="AF48" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7928,7 +7925,7 @@
         <v>83</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>83</v>
@@ -7937,7 +7934,7 @@
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>83</v>
@@ -7948,10 +7945,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7962,31 +7959,31 @@
         <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J49" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H49" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K49" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -8035,28 +8032,28 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>83</v>
@@ -8067,10 +8064,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8081,28 +8078,28 @@
         <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J50" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H50" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K50" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8152,28 +8149,28 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AG50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>83</v>
@@ -8184,10 +8181,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8198,29 +8195,29 @@
         <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J51" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K51" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -8245,50 +8242,50 @@
         <v>83</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF51" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AA51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF51" t="s" s="2">
+      <c r="AG51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AG51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>83</v>
@@ -8299,10 +8296,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8313,29 +8310,29 @@
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J52" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H52" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K52" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>83</v>
@@ -8384,28 +8381,28 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>83</v>
@@ -8416,10 +8413,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8430,31 +8427,31 @@
         <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J53" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H53" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K53" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
@@ -8503,28 +8500,28 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AG53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>83</v>
@@ -8535,10 +8532,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8549,31 +8546,31 @@
         <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J54" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K54" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
@@ -8622,28 +8619,28 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AG54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>83</v>
@@ -8654,10 +8651,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8668,29 +8665,29 @@
         <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J55" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K55" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8739,42 +8736,42 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="AN55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>434</v>
-      </c>
       <c r="B56" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8782,28 +8779,28 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H56" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="I56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J56" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H56" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K56" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8854,71 +8851,71 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>442</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J57" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K57" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8969,71 +8966,71 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>452</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J58" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K58" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9084,42 +9081,42 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9130,25 +9127,25 @@
         <v>81</v>
       </c>
       <c r="G59" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J59" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K59" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9175,95 +9172,95 @@
         <v>83</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="Z59" t="s" s="2">
+      <c r="AA59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="AA59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>470</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J60" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K60" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9314,74 +9311,74 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="AN60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AO60" t="s" s="2">
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
         <v>480</v>
       </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>481</v>
-      </c>
       <c r="B61" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H61" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H61" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="I61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9431,74 +9428,74 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AN61" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>491</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J62" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K62" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9524,55 +9521,55 @@
         <v>83</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Y62" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="Z62" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="Z62" t="s" s="2">
+      <c r="AA62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="AA62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK62" t="s" s="2">
+      <c r="AL62" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>83</v>
@@ -9580,14 +9577,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9603,19 +9600,19 @@
         <v>83</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9665,7 +9662,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9677,19 +9674,19 @@
         <v>83</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AM63" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="AM63" t="s" s="2">
-        <v>511</v>
-      </c>
       <c r="AN63" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
@@ -9697,10 +9694,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9720,16 +9717,16 @@
         <v>83</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9756,14 +9753,14 @@
         <v>83</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="Z64" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>516</v>
-      </c>
       <c r="AA64" t="s" s="2">
         <v>83</v>
       </c>
@@ -9780,7 +9777,7 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9792,7 +9789,7 @@
         <v>83</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>83</v>
@@ -9801,10 +9798,10 @@
         <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
@@ -9812,10 +9809,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9835,16 +9832,16 @@
         <v>83</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9895,7 +9892,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -9907,7 +9904,7 @@
         <v>83</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>83</v>
@@ -9916,21 +9913,21 @@
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AN65" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>522</v>
-      </c>
       <c r="B66" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9944,25 +9941,25 @@
         <v>82</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9988,14 +9985,14 @@
         <v>83</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="Z66" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="Z66" t="s" s="2">
-        <v>527</v>
-      </c>
       <c r="AA66" t="s" s="2">
         <v>83</v>
       </c>
@@ -10012,7 +10009,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10024,19 +10021,19 @@
         <v>83</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
@@ -10044,10 +10041,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10058,7 +10055,7 @@
         <v>81</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>83</v>
@@ -10070,13 +10067,13 @@
         <v>83</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10127,28 +10124,28 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>83</v>
@@ -10159,14 +10156,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10185,16 +10182,16 @@
         <v>83</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="N68" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10232,19 +10229,19 @@
         <v>83</v>
       </c>
       <c r="AB68" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE68" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="AC68" t="s" s="2">
+      <c r="AF68" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10256,7 +10253,7 @@
         <v>83</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>83</v>
@@ -10265,7 +10262,7 @@
         <v>83</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>83</v>
@@ -10276,10 +10273,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10299,22 +10296,22 @@
         <v>83</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>83</v>
@@ -10363,7 +10360,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10375,17 +10372,17 @@
         <v>83</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AM69" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="AN69" t="s" s="2">
         <v>83</v>
       </c>
@@ -10393,12 +10390,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10406,34 +10403,34 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H70" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="I70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J70" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H70" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K70" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>83</v>
@@ -10482,29 +10479,29 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AG70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL70" t="s" s="2">
+      <c r="AM70" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AM70" t="s" s="2">
-        <v>427</v>
-      </c>
       <c r="AN70" t="s" s="2">
         <v>83</v>
       </c>
@@ -10512,12 +10509,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10531,25 +10528,25 @@
         <v>82</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10599,7 +10596,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -10611,30 +10608,30 @@
         <v>83</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="AN71" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>544</v>
-      </c>
       <c r="B72" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10645,11 +10642,11 @@
         <v>81</v>
       </c>
       <c r="G72" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H72" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H72" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="I72" t="s" s="2">
         <v>83</v>
       </c>
@@ -10657,13 +10654,13 @@
         <v>83</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10714,7 +10711,7 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -10726,34 +10723,34 @@
         <v>83</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK72" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="AL72" t="s" s="2">
+      <c r="AM72" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="AM72" t="s" s="2">
+      <c r="AN72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="AN72" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>551</v>
-      </c>
       <c r="B73" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10763,7 +10760,7 @@
         <v>82</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>83</v>
@@ -10772,16 +10769,16 @@
         <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10831,7 +10828,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -10843,16 +10840,16 @@
         <v>83</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AM73" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>83</v>
@@ -10863,10 +10860,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10886,19 +10883,19 @@
         <v>83</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10948,7 +10945,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -10960,16 +10957,16 @@
         <v>83</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>83</v>
@@ -10980,14 +10977,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11003,22 +11000,22 @@
         <v>83</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>83</v>
@@ -11043,14 +11040,14 @@
         <v>83</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Y75" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="Z75" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="Z75" t="s" s="2">
-        <v>574</v>
-      </c>
       <c r="AA75" t="s" s="2">
         <v>83</v>
       </c>
@@ -11067,7 +11064,7 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11079,30 +11076,30 @@
         <v>83</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO75" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="AN75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO75" t="s" s="2">
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
         <v>576</v>
       </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>577</v>
-      </c>
       <c r="B76" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11116,7 +11113,7 @@
         <v>82</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>83</v>
@@ -11125,13 +11122,13 @@
         <v>83</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>52</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11182,7 +11179,7 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11194,30 +11191,30 @@
         <v>83</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="AL76" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AM76" t="s" s="2">
+      <c r="AN76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO76" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>582</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11228,7 +11225,7 @@
         <v>81</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>83</v>
@@ -11240,13 +11237,13 @@
         <v>83</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11297,28 +11294,28 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>83</v>
@@ -11329,14 +11326,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11355,16 +11352,16 @@
         <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M78" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="N78" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11402,19 +11399,19 @@
         <v>83</v>
       </c>
       <c r="AB78" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE78" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="AC78" t="s" s="2">
+      <c r="AF78" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -11426,7 +11423,7 @@
         <v>83</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>83</v>
@@ -11435,7 +11432,7 @@
         <v>83</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>83</v>
@@ -11446,10 +11443,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11460,28 +11457,28 @@
         <v>81</v>
       </c>
       <c r="G79" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J79" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K79" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11531,28 +11528,28 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>83</v>
@@ -11563,10 +11560,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11577,25 +11574,25 @@
         <v>81</v>
       </c>
       <c r="G80" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J80" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K80" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11646,42 +11643,42 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="AG80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM80" t="s" s="2">
+      <c r="AN80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="AN80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>597</v>
-      </c>
       <c r="B81" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11689,28 +11686,28 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H81" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="I81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J81" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H81" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K81" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11761,28 +11758,28 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>83</v>
@@ -11793,10 +11790,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11807,25 +11804,25 @@
         <v>81</v>
       </c>
       <c r="G82" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J82" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K82" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11876,28 +11873,28 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>83</v>
@@ -11908,10 +11905,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11934,16 +11931,16 @@
         <v>83</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11993,7 +11990,7 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12005,16 +12002,16 @@
         <v>83</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>83</v>
@@ -12025,12 +12022,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO83">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
